--- a/modelo_membros_empresa_123.xlsx
+++ b/modelo_membros_empresa_123.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benyfink/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benyfink/Desktop/bkp/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9455A-BBE3-F844-BF70-62D4DDDE9A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83243BB2-504A-3141-B658-85E9CF59073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,12 +415,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,11 +436,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
